--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/word_level_predictions_17.xlsx
@@ -2062,520 +2062,520 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>13</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>15</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>16</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>17</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" t="n">
         <v>18</v>
       </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>19</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>warped</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" t="n">
         <v>20</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>21</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>damaged</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>22</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="I62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -4402,262 +4402,262 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>3</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>11</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>12</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>3</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>13</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>3</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>14</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>3</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>15</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5546,208 +5546,208 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7782,104 +7782,104 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F142" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/word_level_predictions_17.xlsx
@@ -2062,520 +2062,520 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>warped</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>damaged</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="I62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -4402,262 +4402,262 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5546,208 +5546,208 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>4</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>8</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7782,104 +7782,104 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>6</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>2</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F142" s="2" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>6</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>3</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
